--- a/NformTester/NformTester/Keywordscripts/600.60.20.90_InputFormatforGlobalStatusPollingIntervalTime.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.20.90_InputFormatforGlobalStatusPollingIntervalTime.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8170" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8170" uniqueCount="909">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3928,145 +3928,137 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>$SNMP_device_1$</t>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ChangeData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ChangeData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ResetData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script Info</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t>Running Range</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>SetTextValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;1. A user should have sufficient right to configure device and device global parameters.2. Devices should be added in Nform.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;The goal of this test is to verify the input format forGlobal status polling interval time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Select 'Interval' for gloabl staus polling on Server options window.Input 1,6,23 in the time input box.Input -1,0 in the time input box.Input 1.5 in the time input box.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"23"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"-1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_device_1$</t>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_1_NAME$</t>
-  </si>
-  <si>
-    <t>Equal</t>
+    <t>$NAME_SNMP_GXT_1$</t>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Trap_GXT_ChangeData$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Trap_GXT_ChangeData$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Trap_GXT_ResetData$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script Info</t>
-  </si>
-  <si>
-    <t>Script Data</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t>Running Range</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>SetTextValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;1. A user should have sufficient right to configure device and device global parameters.2. Devices should be added in Nform.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;The goal of this test is to verify the input format forGlobal status polling interval time.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Select 'Interval' for gloabl staus polling on Server options window.Input 1,6,23 in the time input box.Input -1,0 in the time input box.Input 1.5 in the time input box.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"23"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"-1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1.5"</t>
+    <t>$Trap_GXT_Port$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4239,7 +4231,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4250,8 +4242,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4292,10 +4287,12 @@
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
@@ -4675,8 +4672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4693,10 +4690,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>840</v>
@@ -4737,10 +4734,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4761,10 +4758,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4795,10 +4792,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4825,7 +4822,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B5" s="8">
         <v>41732</v>
@@ -4834,7 +4831,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4849,7 +4846,7 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B6" s="8">
         <v>41849</v>
@@ -4858,7 +4855,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4894,11 +4891,11 @@
       <c r="H7" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>874</v>
+      <c r="I7" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>905</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>835</v>
@@ -4913,7 +4910,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4932,11 +4929,11 @@
       <c r="H8" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>875</v>
+      <c r="I8" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>906</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>835</v>
@@ -4951,14 +4948,14 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -5079,7 +5076,7 @@
         <v>852</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
@@ -5110,10 +5107,10 @@
         <v>7</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J14" s="4" t="b">
         <v>0</v>
@@ -5144,10 +5141,10 @@
         <v>7</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J15" s="4" t="b">
         <v>0</v>
@@ -5206,10 +5203,10 @@
         <v>7</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J17" s="4" t="b">
         <v>1</v>
@@ -5237,7 +5234,7 @@
         <v>504</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>864</v>
@@ -5383,7 +5380,7 @@
         <v>852</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J23" s="4" t="b">
         <v>1</v>
@@ -5410,13 +5407,13 @@
         <v>7</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -5428,7 +5425,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>855</v>
@@ -5459,10 +5456,10 @@
         <v>504</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -5587,7 +5584,7 @@
         <v>852</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J31" s="4" t="b">
         <v>1</v>
@@ -5614,13 +5611,13 @@
         <v>7</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -5632,7 +5629,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>855</v>
@@ -5663,10 +5660,10 @@
         <v>504</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -5791,7 +5788,7 @@
         <v>852</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J39" s="4" t="b">
         <v>1</v>
@@ -5818,13 +5815,13 @@
         <v>7</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5836,7 +5833,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>855</v>
@@ -5867,10 +5864,10 @@
         <v>504</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -5995,7 +5992,7 @@
         <v>852</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J47" s="4" t="b">
         <v>1</v>
@@ -6022,10 +6019,10 @@
         <v>7</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>864</v>
@@ -6040,7 +6037,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>855</v>
@@ -6071,10 +6068,10 @@
         <v>504</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -6199,7 +6196,7 @@
         <v>852</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J55" s="4" t="b">
         <v>1</v>
@@ -6226,10 +6223,10 @@
         <v>7</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J56" s="15" t="s">
         <v>864</v>
@@ -6244,7 +6241,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>855</v>
@@ -6275,10 +6272,10 @@
         <v>504</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -6403,7 +6400,7 @@
         <v>852</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J63" s="4" t="b">
         <v>1</v>
@@ -6430,10 +6427,10 @@
         <v>7</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J64" s="15" t="s">
         <v>864</v>
@@ -6549,8 +6546,8 @@
       <c r="G69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>874</v>
+      <c r="H69" s="18" t="s">
+        <v>905</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -6708,13 +6705,13 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="9" t="s">
-        <v>878</v>
+        <v>908</v>
       </c>
       <c r="I76" s="9">
         <v>1</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -6836,7 +6833,7 @@
         <v>19</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>2</v>
@@ -6958,13 +6955,13 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="9" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="I87" s="9">
         <v>1</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
@@ -7046,13 +7043,13 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="9" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
       <c r="I91" s="9">
         <v>1</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -7214,7 +7211,7 @@
         <v>19</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>2</v>
@@ -7336,13 +7333,13 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="9" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="I104" s="9">
         <v>1</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -7493,8 +7490,8 @@
       <c r="G111" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H111" s="4" t="s">
-        <v>874</v>
+      <c r="H111" s="18" t="s">
+        <v>905</v>
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
@@ -7771,7 +7768,7 @@
         <v>852</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J123" s="4" t="b">
         <v>1</v>
